--- a/references/Nutrition.xlsx
+++ b/references/Nutrition.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CCB8EB-EEDB-4E2F-884B-AA3266D19143}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF9AAC-E68C-4A66-AA52-374F40A13A77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="131">
   <si>
     <t>Nutrient</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Nutrient-vi</t>
   </si>
   <si>
-    <t>Kcal</t>
-  </si>
-  <si>
     <t>KJ</t>
   </si>
   <si>
@@ -424,6 +421,9 @@
   </si>
   <si>
     <t>phytosterol</t>
+  </si>
+  <si>
+    <t>Cal</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -536,23 +536,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,7 +833,7 @@
   <dimension ref="A1:AR41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -864,137 +860,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="R1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="AR1" s="11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -1002,10 +998,10 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
         <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -1121,16 +1117,16 @@
     </row>
     <row r="3" spans="1:44">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -1255,16 +1251,16 @@
     </row>
     <row r="4" spans="1:44">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1389,16 +1385,16 @@
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -1548,10 +1544,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1559,10 +1555,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1575,10 +1571,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1591,10 +1587,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1607,10 +1603,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1623,10 +1619,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1639,10 +1635,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1655,10 +1651,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1671,10 +1667,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1687,10 +1683,10 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1703,10 +1699,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1719,10 +1715,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1735,10 +1731,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1751,10 +1747,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1767,10 +1763,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1783,10 +1779,10 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1799,10 +1795,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1815,160 +1811,160 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="23.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="10"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>69</v>
       </c>
     </row>

--- a/references/Nutrition.xlsx
+++ b/references/Nutrition.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20C8467-2DE6-47D2-8FAE-D6649D127775}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABBDAE-AD25-41CF-B963-7C569EB26B3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1605" windowWidth="17925" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -830,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR41"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -846,7 +846,8 @@
     <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.5703125" customWidth="1"/>
@@ -856,7 +857,9 @@
     <col min="36" max="36" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -1517,10 +1520,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="16.5" customHeight="1"/>
-    <row r="8" spans="1:44" ht="16.5" customHeight="1"/>
-    <row r="30" ht="21" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/references/Nutrition.xlsx
+++ b/references/Nutrition.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABBDAE-AD25-41CF-B963-7C569EB26B3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE79AFC-DC4C-44A9-8953-1B1C5B4BCEE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="174">
   <si>
     <t>Nutrient</t>
   </si>
@@ -291,15 +291,6 @@
     <t>Trứng</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>generalName</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -414,9 +405,6 @@
     <t>cholesterol</t>
   </si>
   <si>
-    <t>phytosterol</t>
-  </si>
-  <si>
     <t>Cal</t>
   </si>
   <si>
@@ -424,6 +412,147 @@
   </si>
   <si>
     <t>alphaCaroten</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>nameEn</t>
+  </si>
+  <si>
+    <t>nameVi</t>
+  </si>
+  <si>
+    <t>Ten Khoa hoc</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>Loai</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>NuEne1</t>
+  </si>
+  <si>
+    <t>NuEne2</t>
+  </si>
+  <si>
+    <t>NuPro</t>
+  </si>
+  <si>
+    <t>NuFat</t>
+  </si>
+  <si>
+    <t>NuCar</t>
+  </si>
+  <si>
+    <t>NuFib</t>
+  </si>
+  <si>
+    <t>NuAsh</t>
+  </si>
+  <si>
+    <t>NuSug</t>
+  </si>
+  <si>
+    <t>NuCal</t>
+  </si>
+  <si>
+    <t>NuIro</t>
+  </si>
+  <si>
+    <t>NuMag</t>
+  </si>
+  <si>
+    <t>NuMan</t>
+  </si>
+  <si>
+    <t>NuPho</t>
+  </si>
+  <si>
+    <t>NuPat</t>
+  </si>
+  <si>
+    <t>NuSod</t>
+  </si>
+  <si>
+    <t>NuZin</t>
+  </si>
+  <si>
+    <t>NuCop</t>
+  </si>
+  <si>
+    <t>NuSel</t>
+  </si>
+  <si>
+    <t>NuVC</t>
+  </si>
+  <si>
+    <t>NuVB1</t>
+  </si>
+  <si>
+    <t>NuVB2</t>
+  </si>
+  <si>
+    <t>NuVPP</t>
+  </si>
+  <si>
+    <t>NuVB5</t>
+  </si>
+  <si>
+    <t>NuVB6</t>
+  </si>
+  <si>
+    <t>NuFol</t>
+  </si>
+  <si>
+    <t>NuVB9</t>
+  </si>
+  <si>
+    <t>NuVH</t>
+  </si>
+  <si>
+    <t>NuVB12</t>
+  </si>
+  <si>
+    <t>NuVA</t>
+  </si>
+  <si>
+    <t>NuVD</t>
+  </si>
+  <si>
+    <t>NuVE</t>
+  </si>
+  <si>
+    <t>NuVK</t>
+  </si>
+  <si>
+    <t>NuBCa</t>
+  </si>
+  <si>
+    <t>NuACa</t>
+  </si>
+  <si>
+    <t>NuLyc</t>
+  </si>
+  <si>
+    <t>NuIso</t>
+  </si>
+  <si>
+    <t>NuAci</t>
+  </si>
+  <si>
+    <t>NuCho</t>
+  </si>
+  <si>
+    <t>NuPhy</t>
+  </si>
+  <si>
+    <t>phytosterol(mg)</t>
   </si>
 </sst>
 </file>
@@ -830,693 +959,841 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:45">
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U1" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" t="s">
+        <v>149</v>
+      </c>
+      <c r="W1" t="s">
+        <v>150</v>
+      </c>
+      <c r="X1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="H2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="U2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="X2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44">
-      <c r="E2" t="s">
+      <c r="G4">
+        <v>344</v>
+      </c>
+      <c r="H4">
+        <v>1441</v>
+      </c>
+      <c r="I4">
+        <v>8.6</v>
+      </c>
+      <c r="J4">
+        <v>1.5</v>
+      </c>
+      <c r="K4">
+        <v>74.5</v>
+      </c>
+      <c r="L4">
+        <v>0.6</v>
+      </c>
+      <c r="M4">
+        <v>0.8</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>32</v>
+      </c>
+      <c r="P4">
+        <v>1.2</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S4">
+        <v>98</v>
+      </c>
+      <c r="T4">
+        <v>282</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W4">
+        <v>280</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>0.06</v>
+      </c>
+      <c r="AB4">
+        <v>2.4</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>182</v>
+      </c>
+      <c r="H5">
+        <v>763</v>
+      </c>
+      <c r="I5">
+        <v>21.5</v>
+      </c>
+      <c r="J5">
+        <v>10.7</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>1.78</v>
+      </c>
+      <c r="Q5">
+        <v>22</v>
+      </c>
+      <c r="R5">
+        <v>0.01</v>
+      </c>
+      <c r="S5">
+        <v>185</v>
+      </c>
+      <c r="T5">
+        <v>349</v>
+      </c>
+      <c r="U5">
+        <v>59</v>
+      </c>
+      <c r="V5">
+        <v>3.64</v>
+      </c>
+      <c r="W5">
+        <v>78</v>
+      </c>
+      <c r="X5">
+        <v>17.8</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0.1</v>
+      </c>
+      <c r="AA5">
+        <v>0.15</v>
+      </c>
+      <c r="AB5">
+        <v>4.5</v>
+      </c>
+      <c r="AC5">
+        <v>0.38</v>
+      </c>
+      <c r="AD5">
+        <v>0.44</v>
+      </c>
+      <c r="AE5">
+        <v>7</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>3.05</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>4.29</v>
+      </c>
+      <c r="AR5">
+        <v>59</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
         <v>77</v>
       </c>
-      <c r="E3">
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="F3">
-        <v>344</v>
-      </c>
-      <c r="G3">
-        <v>1441</v>
-      </c>
-      <c r="H3">
-        <v>8.6</v>
-      </c>
-      <c r="I3">
-        <v>1.5</v>
-      </c>
-      <c r="J3">
-        <v>74.5</v>
-      </c>
-      <c r="K3">
-        <v>0.6</v>
-      </c>
-      <c r="L3">
+      <c r="G6">
+        <v>184</v>
+      </c>
+      <c r="H6">
+        <v>769</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>14.2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1.8</v>
+      </c>
+      <c r="N6">
+        <v>0.93</v>
+      </c>
+      <c r="O6">
+        <v>71</v>
+      </c>
+      <c r="P6">
+        <v>3.2</v>
+      </c>
+      <c r="Q6">
+        <v>17</v>
+      </c>
+      <c r="R6">
+        <v>0.04</v>
+      </c>
+      <c r="S6">
+        <v>210</v>
+      </c>
+      <c r="T6">
+        <v>258</v>
+      </c>
+      <c r="U6">
+        <v>191</v>
+      </c>
+      <c r="V6">
         <v>0.8</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>32</v>
-      </c>
-      <c r="O3">
-        <v>1.2</v>
-      </c>
-      <c r="P3">
-        <v>17</v>
-      </c>
-      <c r="Q3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R3">
-        <v>98</v>
-      </c>
-      <c r="S3">
-        <v>282</v>
-      </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="V3">
-        <v>280</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Z3">
-        <v>0.06</v>
-      </c>
-      <c r="AA3">
-        <v>2.4</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44">
-      <c r="A4" t="s">
+      <c r="W6">
+        <v>62</v>
+      </c>
+      <c r="X6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0.15</v>
+      </c>
+      <c r="AA6">
+        <v>0.3</v>
+      </c>
+      <c r="AB6">
+        <v>0.1</v>
+      </c>
+      <c r="AC6">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="AD6">
         <v>80</v>
       </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>182</v>
-      </c>
-      <c r="G4">
-        <v>763</v>
-      </c>
-      <c r="H4">
-        <v>21.5</v>
-      </c>
-      <c r="I4">
-        <v>10.7</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>1.78</v>
-      </c>
-      <c r="P4">
-        <v>22</v>
-      </c>
-      <c r="Q4">
-        <v>0.01</v>
-      </c>
-      <c r="R4">
-        <v>185</v>
-      </c>
-      <c r="S4">
-        <v>349</v>
-      </c>
-      <c r="T4">
-        <v>59</v>
-      </c>
-      <c r="U4">
-        <v>3.64</v>
-      </c>
-      <c r="V4">
-        <v>78</v>
-      </c>
-      <c r="W4">
-        <v>17.8</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0.1</v>
-      </c>
-      <c r="Z4">
-        <v>0.15</v>
-      </c>
-      <c r="AA4">
-        <v>4.5</v>
-      </c>
-      <c r="AB4">
-        <v>0.38</v>
-      </c>
-      <c r="AC4">
-        <v>0.44</v>
-      </c>
-      <c r="AD4">
-        <v>7</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>3.05</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>4.29</v>
-      </c>
-      <c r="AQ4">
-        <v>59</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>184</v>
-      </c>
-      <c r="G5">
-        <v>769</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>14.2</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1.8</v>
-      </c>
-      <c r="M5">
-        <v>0.93</v>
-      </c>
-      <c r="N5">
-        <v>71</v>
-      </c>
-      <c r="O5">
-        <v>3.2</v>
-      </c>
-      <c r="P5">
-        <v>17</v>
-      </c>
-      <c r="Q5">
-        <v>0.04</v>
-      </c>
-      <c r="R5">
-        <v>210</v>
-      </c>
-      <c r="S5">
-        <v>258</v>
-      </c>
-      <c r="T5">
-        <v>191</v>
-      </c>
-      <c r="U5">
-        <v>0.8</v>
-      </c>
-      <c r="V5">
-        <v>62</v>
-      </c>
-      <c r="W5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0.15</v>
-      </c>
-      <c r="Z5">
-        <v>0.3</v>
-      </c>
-      <c r="AA5">
-        <v>0.1</v>
-      </c>
-      <c r="AB5">
-        <v>1.8620000000000001</v>
-      </c>
-      <c r="AC5">
+      <c r="AE6">
         <v>80</v>
       </c>
-      <c r="AD5">
-        <v>80</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>5.4</v>
       </c>
-      <c r="AH5">
+      <c r="AI6">
         <v>160</v>
       </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
         <v>1.34</v>
       </c>
-      <c r="AK5">
+      <c r="AL6">
         <v>0.4</v>
       </c>
-      <c r="AL5">
+      <c r="AM6">
         <v>14</v>
       </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
         <v>3.68</v>
       </c>
-      <c r="AQ5">
+      <c r="AR6">
         <v>894</v>
       </c>
-      <c r="AR5">
+      <c r="AS6">
         <v>0</v>
       </c>
     </row>
